--- a/70-534-2017 Two Room Schedule.xlsx
+++ b/70-534-2017 Two Room Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de894c39ffa498a2/70-534-2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Data\Github\70-534\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
   <si>
     <t>Speaker</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Day 2 Wednesday June 14th</t>
   </si>
   <si>
-    <t>45 min Presentation followed by 15 min Lab and Q &amp; A</t>
-  </si>
-  <si>
     <t>Labs/Lunch &amp; Networking</t>
   </si>
   <si>
@@ -191,6 +188,46 @@
   <si>
     <t>Steve Porter
 Bill Wilder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Content: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/dstolts/70-534</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         Socialize: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#70-534 @ITProGuru</t>
+    </r>
+  </si>
+  <si>
+    <t>Presentation includes 15 min Lab and Q &amp; A</t>
   </si>
 </sst>
 </file>
@@ -287,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +349,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -625,15 +668,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,7 +721,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,6 +803,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,62 +845,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,554 +1203,577 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="57.21875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="36.21875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="61.77734375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="14" style="18" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="57.21875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="61.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" customWidth="1"/>
     <col min="9" max="9" width="58.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="20"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B2" s="2"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="60">
+      <c r="A3" s="50">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="61"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>0.375</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>10</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="17">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="B7" s="24">
+        <v>10</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="B7" s="26">
+    </row>
+    <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="17">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B8" s="24">
+        <v>45</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="18">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="B8" s="26">
-        <v>45</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>0.4201388888888889</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <v>15</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="59"/>
+      <c r="C9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>0.43055555555555558</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>60</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>0.47222222222222227</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>60</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>0.51388888888888895</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>60</v>
       </c>
       <c r="C12" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58" t="s">
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A13" s="17">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="B13" s="24">
+        <v>75</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A14" s="17">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="B14" s="24">
+        <v>75</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="17">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="B15" s="24">
+        <v>40</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="63"/>
+    </row>
+    <row r="16" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="B16" s="24">
         <v>30</v>
       </c>
-      <c r="F12" s="59"/>
-    </row>
-    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="18">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="B13" s="26">
-        <v>75</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="C16" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="61"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="18">
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="B14" s="26">
-        <v>75</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="18">
-        <v>0.15972222222222224</v>
-      </c>
-      <c r="B15" s="26">
-        <v>40</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="59"/>
-    </row>
-    <row r="16" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="18">
-        <v>0.6875</v>
-      </c>
-      <c r="B16" s="26">
-        <v>30</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="55"/>
-    </row>
-    <row r="17" spans="1:6" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="60">
+      <c r="A20" s="50">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="61"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="18"/>
-      <c r="B22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="40" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>0.375</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <v>20</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A24" s="17">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B24" s="24">
+        <v>75</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A25" s="17">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="B25" s="24">
+        <v>15</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="63"/>
+    </row>
+    <row r="26" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A26" s="17">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="B26" s="24">
+        <v>75</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A27" s="17">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="B27" s="24">
+        <v>60</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="63"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="17">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="B28" s="24">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="18">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="B24" s="26">
-        <v>75</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="18">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="B25" s="26">
-        <v>15</v>
-      </c>
-      <c r="C25" s="56" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A29" s="17">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="B29" s="24">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58" t="s">
+      <c r="E29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="59"/>
-    </row>
-    <row r="26" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A26" s="18">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="B26" s="26">
-        <v>75</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="18">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="B27" s="26">
-        <v>60</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="17">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="B30" s="24">
+        <v>20</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A31" s="17">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="B31" s="24">
+        <v>155</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="63"/>
+    </row>
+    <row r="32" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="B32" s="24">
         <v>30</v>
       </c>
-      <c r="F27" s="59"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="18">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="B28" s="26">
-        <v>20</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="18">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="B29" s="26">
-        <v>20</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="18">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="B30" s="26">
-        <v>20</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="18">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="B31" s="26">
-        <v>155</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="59"/>
-    </row>
-    <row r="32" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="18">
-        <v>0.6875</v>
-      </c>
-      <c r="B32" s="26">
-        <v>30</v>
-      </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54" t="s">
+      <c r="D32" s="59"/>
+      <c r="E32" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="55"/>
+      <c r="F32" s="61"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="50" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A34" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C19:F19"/>
@@ -1724,18 +1789,7 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" location="syllabus-3"/>
@@ -1763,415 +1817,428 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="89.21875" style="14" customWidth="1"/>
+    <col min="1" max="2" width="14" style="18" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="89.21875" style="13" customWidth="1"/>
     <col min="5" max="5" width="58.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="60">
+      <c r="A3" s="50">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="61"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="64" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="B6" s="24">
+        <v>10</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="17">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="B7" s="24">
+        <v>10</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="17">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B8" s="24">
+        <v>45</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="17">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="B9" s="24">
+        <v>15</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="67"/>
+    </row>
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A10" s="17">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="B10" s="24">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="17">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="B11" s="24">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="B12" s="24">
+        <v>60</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="65"/>
-    </row>
-    <row r="5" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="D12" s="63"/>
+    </row>
+    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A13" s="17">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="B13" s="24">
+        <v>75</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A14" s="17">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="B14" s="24">
+        <v>75</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="17">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="B15" s="24">
+        <v>40</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="67"/>
+    </row>
+    <row r="16" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="B16" s="24">
+        <v>30</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="69"/>
+    </row>
+    <row r="17" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="55"/>
+    </row>
+    <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+    </row>
+    <row r="19" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A19" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="50">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="51"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="55"/>
+    </row>
+    <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="17"/>
+      <c r="B22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D22" s="44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+    <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A23" s="17">
         <v>0.375</v>
       </c>
-      <c r="B6" s="26">
-        <v>10</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="B7" s="26">
-        <v>10</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="18">
+      <c r="B23" s="24">
+        <v>20</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A24" s="17">
         <v>0.3888888888888889</v>
       </c>
-      <c r="B8" s="26">
-        <v>45</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="B24" s="24">
+        <v>75</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="17">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="B25" s="24">
         <v>15</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="69"/>
-    </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="B10" s="26">
+      <c r="C25" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="67"/>
+    </row>
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A26" s="17">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="B26" s="24">
+        <v>75</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="17">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="B27" s="24">
         <v>60</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="B11" s="26">
-        <v>60</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="18">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="B12" s="26">
-        <v>60</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="59"/>
-    </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="18">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="B13" s="26">
-        <v>75</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="C27" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="63"/>
+    </row>
+    <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="17">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="B28" s="24">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A29" s="17">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="B29" s="24">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A30" s="17">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="B30" s="24">
+        <v>20</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="17">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="B31" s="24">
+        <v>155</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="67"/>
+    </row>
+    <row r="32" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="B32" s="24">
+        <v>30</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="69"/>
+    </row>
+    <row r="33" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="54"/>
+    </row>
+    <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A34" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="18">
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="B14" s="26">
-        <v>75</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="18">
-        <v>0.15972222222222224</v>
-      </c>
-      <c r="B15" s="26">
-        <v>40</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="69"/>
-    </row>
-    <row r="16" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="18">
-        <v>0.6875</v>
-      </c>
-      <c r="B16" s="26">
-        <v>30</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="72"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="65"/>
-    </row>
-    <row r="18" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-    </row>
-    <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="60">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="62"/>
-    </row>
-    <row r="21" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="61"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="64"/>
-    </row>
-    <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="18"/>
-      <c r="B22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="B23" s="26">
-        <v>20</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="18">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="B24" s="26">
-        <v>75</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="18">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="B25" s="26">
-        <v>15</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="69"/>
-    </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A26" s="18">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="B26" s="26">
-        <v>75</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="18">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="B27" s="26">
-        <v>60</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="59"/>
-    </row>
-    <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="18">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="B28" s="26">
-        <v>20</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="18">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="B29" s="26">
-        <v>20</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="18">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="B30" s="26">
-        <v>20</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="18">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="B31" s="26">
-        <v>155</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="69"/>
-    </row>
-    <row r="32" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="18">
-        <v>0.6875</v>
-      </c>
-      <c r="B32" s="26">
-        <v>30</v>
-      </c>
-      <c r="C32" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="72"/>
-    </row>
-    <row r="33" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="64"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
+  <mergeCells count="21">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C15:D15"/>
@@ -2179,13 +2246,12 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" location="syllabus-3"/>
@@ -2206,412 +2272,418 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14" style="19" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="113" style="6" customWidth="1"/>
+    <col min="1" max="2" width="14" style="18" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="113" style="5" customWidth="1"/>
     <col min="5" max="5" width="58.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="36"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="67"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="37"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="60">
+      <c r="A3" s="50">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="61"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="64"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="B6" s="24">
+        <v>10</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="17">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="B7" s="24">
+        <v>10</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="17">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B8" s="24">
+        <v>45</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="17">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="B9" s="24">
+        <v>15</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="B6" s="26">
-        <v>10</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="B7" s="26">
-        <v>10</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="18">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="B8" s="26">
-        <v>45</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="D9" s="63"/>
+    </row>
+    <row r="10" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="17">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="B10" s="24">
+        <v>60</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A11" s="17">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="B11" s="24">
+        <v>60</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="59"/>
-    </row>
-    <row r="10" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="B10" s="26">
+    </row>
+    <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="B12" s="24">
         <v>60</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="B11" s="26">
-        <v>60</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="18">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="B12" s="26">
-        <v>60</v>
-      </c>
       <c r="C12" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="59"/>
-    </row>
-    <row r="13" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="18">
+        <v>29</v>
+      </c>
+      <c r="D12" s="63"/>
+    </row>
+    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="17">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <v>75</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>0.1076388888888889</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="24">
         <v>75</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>0.15972222222222224</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <v>40</v>
       </c>
       <c r="C15" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="63"/>
     </row>
     <row r="16" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>0.6875</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>30</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="72"/>
     </row>
     <row r="17" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="64" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="64"/>
-    </row>
-    <row r="18" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="D17" s="54"/>
+    </row>
+    <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
     </row>
     <row r="19" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B19" s="37"/>
-      <c r="C19" s="68" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="60">
+      <c r="A20" s="50">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="62"/>
+      <c r="D20" s="52"/>
     </row>
     <row r="21" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="61"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="64" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="55"/>
+    </row>
+    <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="17"/>
+      <c r="B22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A23" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="B23" s="24">
+        <v>20</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="64"/>
-    </row>
-    <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="18"/>
-      <c r="B22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="B23" s="26">
+    </row>
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A24" s="17">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B24" s="24">
+        <v>75</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A25" s="17">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="B25" s="24">
+        <v>15</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="63"/>
+    </row>
+    <row r="26" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A26" s="17">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="B26" s="24">
+        <v>75</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="17">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="B27" s="24">
+        <v>60</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="63"/>
+    </row>
+    <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="17">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="B28" s="24">
         <v>20</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C28" s="39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="18">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="B24" s="26">
-        <v>75</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="18">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="B25" s="26">
-        <v>15</v>
-      </c>
-      <c r="C25" s="66" t="s">
+      <c r="D28" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="17">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="B29" s="24">
+        <v>20</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="59"/>
-    </row>
-    <row r="26" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="18">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="B26" s="26">
-        <v>75</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="18">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="B27" s="26">
-        <v>60</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="59"/>
-    </row>
-    <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="18">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="B28" s="26">
+    </row>
+    <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A30" s="17">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="B30" s="24">
         <v>20</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="35" t="s">
+      <c r="C30" s="39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="18">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="B29" s="26">
-        <v>20</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="35" t="s">
+      <c r="D30" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="18">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="B30" s="26">
-        <v>20</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="31" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>0.58680555555555558</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="24">
         <v>155</v>
       </c>
       <c r="C31" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>0.6875</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="24">
         <v>30</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="74"/>
+      <c r="D32" s="72"/>
     </row>
     <row r="33" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="64" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="64"/>
+      <c r="D33" s="54"/>
+    </row>
+    <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A34" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
+  <mergeCells count="21">
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -2626,6 +2698,12 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" location="syllabus-3"/>

--- a/70-534-2017 Two Room Schedule.xlsx
+++ b/70-534-2017 Two Room Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="52">
   <si>
     <t>Speaker</t>
   </si>
@@ -229,6 +229,17 @@
   <si>
     <t>Presentation includes 15 min Lab and Q &amp; A</t>
   </si>
+  <si>
+    <t>What to Expect; Q&amp;A; Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation Link: Please text MICROSOFT AZURE to 878787 to take part in a brief survey.  
+Survey Link:  http://t.validar.com/1/VBV7Q </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation Link: Please text MICROSOFT AZURE to 878787 to take part in a brief survey.  
+Survey Link:  http://t.validar.com/1/VBV7Q  </t>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +249,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +334,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -668,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -803,83 +821,86 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,7 +1227,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,43 +1243,43 @@
   <sheetData>
     <row r="1" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B1" s="19"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B2" s="2"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="50">
+      <c r="A3" s="59">
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="51"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="17"/>
@@ -1295,7 +1316,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
@@ -1345,14 +1366,14 @@
       <c r="B9" s="24">
         <v>15</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="62" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A10" s="17">
@@ -1401,14 +1422,14 @@
       <c r="B12" s="24">
         <v>60</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A13" s="17">
@@ -1459,14 +1480,14 @@
       <c r="B15" s="24">
         <v>40</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="62" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="63"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="17">
@@ -1475,67 +1496,67 @@
       <c r="B16" s="24">
         <v>30</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="50">
+      <c r="A20" s="59">
         <v>0.35416666666666669</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="51"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="1:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="17"/>
@@ -1602,14 +1623,14 @@
       <c r="B25" s="24">
         <v>15</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="62" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
@@ -1638,14 +1659,14 @@
       <c r="B27" s="24">
         <v>60</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="17">
@@ -1714,14 +1735,14 @@
       <c r="B31" s="24">
         <v>155</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="62" t="s">
+      <c r="D31" s="56"/>
+      <c r="E31" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="17">
@@ -1730,50 +1751,37 @@
       <c r="B32" s="24">
         <v>30</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60" t="s">
+      <c r="D32" s="52"/>
+      <c r="E32" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="61"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C19:F19"/>
@@ -1790,6 +1798,19 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" location="syllabus-3"/>
@@ -1817,10 +1838,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1832,38 +1853,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="50">
+      <c r="A3" s="59">
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="51"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="17"/>
@@ -1926,10 +1947,10 @@
       <c r="B9" s="24">
         <v>15</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="68"/>
     </row>
     <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A10" s="17">
@@ -1966,10 +1987,10 @@
       <c r="B12" s="24">
         <v>60</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A13" s="17">
@@ -2006,10 +2027,10 @@
       <c r="B15" s="24">
         <v>40</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="68"/>
     </row>
     <row r="16" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="17">
@@ -2018,54 +2039,54 @@
       <c r="B16" s="24">
         <v>30</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="69"/>
+      <c r="D16" s="71"/>
     </row>
     <row r="17" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
     </row>
     <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="50">
+      <c r="A20" s="59">
         <v>0.35416666666666669</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="51"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="64"/>
     </row>
     <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="17"/>
@@ -2114,10 +2135,10 @@
       <c r="B25" s="24">
         <v>15</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="68"/>
     </row>
     <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
@@ -2140,10 +2161,10 @@
       <c r="B27" s="24">
         <v>60</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="17">
@@ -2194,10 +2215,10 @@
       <c r="B31" s="24">
         <v>155</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="67"/>
+      <c r="D31" s="68"/>
     </row>
     <row r="32" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="17">
@@ -2206,36 +2227,50 @@
       <c r="B32" s="24">
         <v>30</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="69"/>
+      <c r="D32" s="71"/>
     </row>
     <row r="33" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="74"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
+  <mergeCells count="22">
+    <mergeCell ref="C35:D38"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:A4"/>
@@ -2247,6 +2282,11 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
@@ -2272,10 +2312,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2288,35 +2328,35 @@
   <sheetData>
     <row r="1" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B1" s="34"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="48"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B2" s="35"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="50">
+      <c r="A3" s="59">
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="61"/>
     </row>
     <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="51"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="17"/>
@@ -2332,30 +2372,30 @@
     </row>
     <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="17">
-        <v>0.375</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="B6" s="24">
         <v>10</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="17">
-        <v>0.38194444444444442</v>
+        <v>0.375</v>
       </c>
       <c r="B7" s="24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
@@ -2379,10 +2419,10 @@
       <c r="B9" s="24">
         <v>15</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="17">
@@ -2419,10 +2459,10 @@
       <c r="B12" s="24">
         <v>60</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="17">
@@ -2459,10 +2499,10 @@
       <c r="B15" s="24">
         <v>40</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="17">
@@ -2471,53 +2511,53 @@
       <c r="B16" s="24">
         <v>30</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="72"/>
+      <c r="D16" s="73"/>
     </row>
     <row r="17" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B19" s="35"/>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="67"/>
     </row>
     <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="50">
+      <c r="A20" s="59">
         <v>0.35416666666666669</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="51"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="64"/>
     </row>
     <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="17"/>
@@ -2566,10 +2606,10 @@
       <c r="B25" s="24">
         <v>15</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="58"/>
     </row>
     <row r="26" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
@@ -2592,10 +2632,10 @@
       <c r="B27" s="24">
         <v>60</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="17">
@@ -2646,10 +2686,10 @@
       <c r="B31" s="24">
         <v>155</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="63"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="17">
@@ -2658,31 +2698,55 @@
       <c r="B32" s="24">
         <v>30</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="73"/>
     </row>
     <row r="33" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="74"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C1:D1"/>
@@ -2699,11 +2763,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" location="syllabus-3"/>
